--- a/需求池/需求池.xlsx
+++ b/需求池/需求池.xlsx
@@ -50,33 +50,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>陈滨淋</author>
-  </authors>
-  <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>陈滨淋:①重要性和紧急度都“超高”的需求标注为“六星”也是最高级别的需求。②重要性和紧急度有一个出现“超高”的需求为“五星”。③两个维度只要有一个“高”则为“四星”其他以此类推</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="50">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +230,28 @@
   </si>
   <si>
     <t>☆☆☆☆</t>
+  </si>
+  <si>
+    <t>已排期</t>
+  </si>
+  <si>
+    <t>1、关注公众号推送消息
+2、如何引导关注公众号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超高</t>
+  </si>
+  <si>
+    <t>☆☆☆☆☆☆</t>
+  </si>
+  <si>
+    <t>1、分销中心新增分类、排版修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、爆品，可添加水印</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -637,7 +634,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="24">
     <dxf>
       <font>
         <b/>
@@ -788,67 +785,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1234,12 +1170,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X165"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -1415,57 +1351,57 @@
       <c r="W3" s="9"/>
       <c r="X3" s="10"/>
     </row>
-    <row r="4" spans="1:24" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="26">
-        <v>44134</v>
+        <v>44123</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="10"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="O4" s="38"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+    </row>
+    <row r="5" spans="1:24" ht="33" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1477,33 +1413,35 @@
         <v>35</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="34"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
@@ -1514,20 +1452,44 @@
       <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26">
+        <v>44134</v>
+      </c>
       <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="14"/>
+      <c r="D6" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="40"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
@@ -1539,20 +1501,44 @@
       <c r="W6" s="9"/>
       <c r="X6" s="10"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="26"/>
+    <row r="7" spans="1:24" ht="33" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="26">
+        <v>44134</v>
+      </c>
       <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="6"/>
+      <c r="D7" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="N7" s="14"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -1566,19 +1552,43 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="6"/>
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26">
+        <v>44138</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="N8" s="14"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -1619,18 +1629,18 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
-      <c r="B10" s="27"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="36"/>
       <c r="D10" s="26"/>
       <c r="E10" s="13"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="6"/>
       <c r="N10" s="14"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
@@ -1857,8 +1867,8 @@
       <c r="C19" s="36"/>
       <c r="D19" s="26"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="12"/>
@@ -1985,7 +1995,7 @@
       <c r="A24" s="12"/>
       <c r="B24" s="27"/>
       <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="13"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -3906,20 +3916,20 @@
       <c r="X97" s="10"/>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A98" s="15"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="37"/>
-      <c r="D98" s="37"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="15"/>
-      <c r="L98" s="15"/>
-      <c r="M98" s="15"/>
-      <c r="N98" s="17"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="14"/>
       <c r="O98" s="9"/>
       <c r="P98" s="9"/>
       <c r="Q98" s="9"/>
@@ -4608,56 +4618,56 @@
       <c r="X124" s="10"/>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A125" s="18"/>
-      <c r="B125" s="29"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="28"/>
       <c r="C125" s="37"/>
       <c r="D125" s="37"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
       <c r="H125" s="17"/>
       <c r="I125" s="17"/>
-      <c r="J125" s="18"/>
-      <c r="K125" s="18"/>
-      <c r="L125" s="18"/>
-      <c r="M125" s="18"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="15"/>
+      <c r="L125" s="15"/>
+      <c r="M125" s="15"/>
       <c r="N125" s="17"/>
-      <c r="O125" s="20"/>
-      <c r="P125" s="20"/>
-      <c r="Q125" s="20"/>
-      <c r="R125" s="20"/>
-      <c r="S125" s="20"/>
-      <c r="T125" s="20"/>
-      <c r="U125" s="20"/>
-      <c r="V125" s="20"/>
-      <c r="W125" s="20"/>
-      <c r="X125" s="21"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="9"/>
+      <c r="Q125" s="9"/>
+      <c r="R125" s="9"/>
+      <c r="S125" s="9"/>
+      <c r="T125" s="9"/>
+      <c r="U125" s="9"/>
+      <c r="V125" s="9"/>
+      <c r="W125" s="9"/>
+      <c r="X125" s="10"/>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A126" s="1"/>
-      <c r="B126" s="30"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
-      <c r="M126" s="1"/>
-      <c r="N126" s="1"/>
-      <c r="O126" s="1"/>
-      <c r="P126" s="1"/>
-      <c r="Q126" s="1"/>
-      <c r="R126" s="1"/>
-      <c r="S126" s="1"/>
-      <c r="T126" s="1"/>
-      <c r="U126" s="1"/>
-      <c r="V126" s="1"/>
-      <c r="W126" s="1"/>
-      <c r="X126" s="1"/>
+      <c r="A126" s="18"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="37"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="18"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="18"/>
+      <c r="M126" s="18"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="20"/>
+      <c r="P126" s="20"/>
+      <c r="Q126" s="20"/>
+      <c r="R126" s="20"/>
+      <c r="S126" s="20"/>
+      <c r="T126" s="20"/>
+      <c r="U126" s="20"/>
+      <c r="V126" s="20"/>
+      <c r="W126" s="20"/>
+      <c r="X126" s="21"/>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A127" s="1"/>
@@ -5673,9 +5683,35 @@
       <c r="W165" s="1"/>
       <c r="X165" s="1"/>
     </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A166" s="1"/>
+      <c r="B166" s="30"/>
+      <c r="C166" s="30"/>
+      <c r="D166" s="30"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
+      <c r="T166" s="1"/>
+      <c r="U166" s="1"/>
+      <c r="V166" s="1"/>
+      <c r="W166" s="1"/>
+      <c r="X166" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="H2:H9">
+  <conditionalFormatting sqref="H2:H10">
     <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>"☆☆☆☆☆"</formula>
     </cfRule>
@@ -5683,7 +5719,7 @@
       <formula>"☆☆☆☆☆☆"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D23">
+  <conditionalFormatting sqref="D2:D24">
     <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"已上线"</formula>
     </cfRule>
@@ -5694,37 +5730,36 @@
       <formula>"已拒绝"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D23">
+  <conditionalFormatting sqref="D2:D24">
     <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"待细化"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G19">
       <formula1>"超高,高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H10">
       <formula1>"☆☆☆☆☆☆,☆☆☆☆☆,☆☆☆☆,☆☆☆,☆☆,☆"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I10">
       <formula1>"前端,后端,前后端"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:K9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:K10">
       <formula1>"需要,不需要"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L10">
       <formula1>"大,中,小"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D24">
       <formula1>"待细化,待评审,已排期,已拒绝,已上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M84">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M85">
       <formula1>"业务部门,老板,用户反馈,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5734,7 +5769,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -5820,7 +5855,7 @@
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>37</v>

--- a/需求池/需求池.xlsx
+++ b/需求池/需求池.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="59">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,40 @@
     <t>1、爆品，可添加水印</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>1、活动详情页新增购物车功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、店铺页新增分类/筛选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、补偿金（部分退款）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待评审</t>
+  </si>
+  <si>
+    <t>1、团购活动新增商品搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、分销员可自由定价分销的活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个活动可添加多个自提点供用户现在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可分享单个商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -378,7 +412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -500,13 +534,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -630,11 +742,143 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -846,30 +1090,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1175,7 +1395,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -1410,7 +1630,7 @@
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>40</v>
@@ -1560,7 +1780,7 @@
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -1602,19 +1822,43 @@
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="26">
+        <v>44139</v>
+      </c>
       <c r="C9" s="36"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="6"/>
+      <c r="D9" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="N9" s="14"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
@@ -1628,19 +1872,43 @@
       <c r="X9" s="10"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="26">
+        <v>44139</v>
+      </c>
       <c r="C10" s="36"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="6"/>
+      <c r="D10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="N10" s="14"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
@@ -1654,19 +1922,43 @@
       <c r="X10" s="10"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27">
+        <v>44140</v>
+      </c>
       <c r="C11" s="36"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
+      <c r="D11" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="N11" s="14"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
@@ -1680,19 +1972,43 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="43">
+        <v>11</v>
+      </c>
+      <c r="B12" s="41">
+        <v>44153</v>
+      </c>
       <c r="C12" s="36"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
+      <c r="D12" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="N12" s="14"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
@@ -1706,19 +2022,31 @@
       <c r="X12" s="10"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="36"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="N13" s="14"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
@@ -1732,19 +2060,43 @@
       <c r="X13" s="10"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
+      <c r="B14" s="27">
+        <v>44162</v>
+      </c>
       <c r="C14" s="36"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+      <c r="D14" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="N14" s="14"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
@@ -1758,19 +2110,43 @@
       <c r="X14" s="10"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="12">
+        <v>13</v>
+      </c>
+      <c r="B15" s="27">
+        <v>44162</v>
+      </c>
       <c r="C15" s="36"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+      <c r="D15" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="N15" s="14"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
@@ -5710,48 +6086,64 @@
       <c r="X166" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="H2:H10">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+  <conditionalFormatting sqref="H2:H12">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"☆☆☆☆☆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"☆☆☆☆☆☆"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D24">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+  <conditionalFormatting sqref="D2:D12 D14:D24">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>"已上线"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
       <formula>"已排期"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>"已拒绝"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D24">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+  <conditionalFormatting sqref="D2:D12 D14:D24">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>"待细化"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H15">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"☆☆☆☆☆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"☆☆☆☆☆☆"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G12 F14:G19">
       <formula1>"超高,高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H12 H14:H15">
       <formula1>"☆☆☆☆☆☆,☆☆☆☆☆,☆☆☆☆,☆☆☆,☆☆,☆"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I15">
       <formula1>"前端,后端,前后端"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:K10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:K15">
       <formula1>"需要,不需要"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L15">
       <formula1>"大,中,小"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D12 D14:D24">
       <formula1>"待细化,待评审,已排期,已拒绝,已上线"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M85">
@@ -10150,72 +10542,72 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H3 H5:H7">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
       <formula>"☆☆☆☆☆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
       <formula>"☆☆☆☆☆☆"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
       <formula>"☆☆☆☆☆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
       <formula>"☆☆☆☆☆☆"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D24">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
       <formula>"已上线"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
       <formula>"已排期"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
       <formula>"已拒绝"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D24">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>"待细化"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D15">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"已上线"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"测试中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"开发中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"开发中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"待细化"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"☆☆☆☆☆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"☆☆☆☆☆☆"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"已上线"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"已排期"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"已拒绝"</formula>
     </cfRule>
   </conditionalFormatting>
